--- a/biology/Biochimie/Acide_gras_synthase/Acide_gras_synthase.xlsx
+++ b/biology/Biochimie/Acide_gras_synthase/Acide_gras_synthase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'acide gras synthase (FAS, de l'anglais fatty acid synthase) est une enzyme, codée chez l'Humain par le gène FASN, ou un système d'enzymes qui réalise la biosynthèse des acides gras linéaires saturés par des condensations de Claisen successives d'unités malonyl-CoA sur de l'acétyl-CoA jusqu'à obtention de l'acide palmitique :
@@ -524,7 +536,9 @@
           <t>Ne pas confondre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">FAS, ligands et récepteurs impliqués dans l'apoptose
 </t>
